--- a/Logistics/Budget_75_JPB.xlsx
+++ b/Logistics/Budget_75_JPB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Google Drive\495 project\Timeline and Budget\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\GitHub\SeniorDesign\Logistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Budget" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Budget!$A$1:$T$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Budget!$A$1:$T$32</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Budget!$A:$A</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="59">
   <si>
     <t>Item</t>
   </si>
@@ -134,12 +134,6 @@
   </si>
   <si>
     <t>http://www.amazon.com/Watts-SVGE10-Pre-Cut-Diameter-10-Foot/dp/B000HE5DUG/ref=sr_1_1?s=industrial&amp;ie=UTF8&amp;qid=1395884950&amp;sr=1-1&amp;keywords=plastic+tubing</t>
-  </si>
-  <si>
-    <t>ViewSonic PJD5134 SVGA DLP Projector</t>
-  </si>
-  <si>
-    <t>http://www.amazon.com/ViewSonic-PJD5134-Projector-Lumens-Blu-Ray/dp/B00A9S3OOC/ref=sr_1_5?ie=UTF8&amp;qid=1395978933&amp;sr=8-5&amp;keywords=business+projector</t>
   </si>
   <si>
     <t>Imaging</t>
@@ -272,7 +266,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -281,15 +275,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FFCCCCCC"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color rgb="FFCCCCCC"/>
       </bottom>
@@ -300,13 +316,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
@@ -322,7 +340,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
@@ -347,7 +364,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -360,8 +376,21 @@
     <xf numFmtId="8" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -646,10 +675,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T113"/>
+  <dimension ref="A1:T112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -664,29 +693,29 @@
     <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2"/>
@@ -702,29 +731,29 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="8">
         <v>30</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="9">
         <v>1</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="8">
         <v>30</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="9"/>
+      <c r="H2" s="27"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -738,29 +767,29 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="8">
         <v>1.34</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="9">
         <v>1</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="8">
         <v>1.34</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="9"/>
+      <c r="H3" s="27"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -774,29 +803,29 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
     </row>
-    <row r="4" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="11">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="12">
         <v>6.95</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="13">
         <v>1</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="8">
         <v>6.95</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="27"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -810,29 +839,29 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="6">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="8">
         <v>45</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="9">
         <v>1</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="8">
         <v>45</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="9"/>
+      <c r="H5" s="27"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -846,29 +875,29 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="6">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="8">
         <v>17.100000000000001</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="9">
         <v>1</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="8">
         <v>17.100000000000001</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="9"/>
+      <c r="H6" s="27"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -882,29 +911,29 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="6">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="8">
         <v>21.56</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="9">
         <v>4</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="8">
         <v>86.24</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="9"/>
+      <c r="H7" s="27"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -918,29 +947,29 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="6">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="8">
         <v>46.85</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="9">
         <v>2</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="8">
         <v>93.7</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="E8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="9"/>
+      <c r="H8" s="27"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -954,29 +983,29 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="6">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="8">
         <v>12</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="9">
         <v>1</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="8">
         <v>12</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="9"/>
+      <c r="H9" s="27"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -990,29 +1019,29 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="6">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="8">
         <v>12</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="9">
         <v>1</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="8">
         <v>12</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="9"/>
+      <c r="H10" s="27"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -1026,29 +1055,29 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="6">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="8">
         <v>13</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="9">
         <v>1</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="8">
         <v>13</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="9"/>
+      <c r="H11" s="27"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1062,29 +1091,29 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="6">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="8">
         <v>148</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="9">
         <v>1</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="8">
         <v>148</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="5" t="s">
+      <c r="E12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="9"/>
+      <c r="H12" s="27"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1098,29 +1127,29 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="6">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="8">
         <v>13</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="9">
         <v>1</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="8">
         <v>13</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="10" t="s">
+      <c r="F13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="9"/>
+      <c r="H13" s="27"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -1134,29 +1163,29 @@
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
     </row>
-    <row r="14" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="6">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="8">
         <v>34</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="9">
         <v>1</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="8">
         <v>34</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="10" t="s">
+      <c r="F14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="9"/>
+      <c r="H14" s="27"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -1170,29 +1199,29 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
     </row>
-    <row r="15" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="16">
         <v>3</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="17">
         <v>1</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="16">
         <v>3</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="14" t="s">
+      <c r="F15" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="18"/>
+      <c r="H15" s="28"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -1206,29 +1235,29 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="16">
         <v>22</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="17">
         <v>1</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="16">
         <v>22</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="18"/>
+      <c r="H16" s="28"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -1242,29 +1271,29 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
     </row>
-    <row r="17" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="15">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="16">
         <v>25</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="17">
         <v>1</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="16">
         <v>25</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="18"/>
+      <c r="H17" s="28"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -1278,29 +1307,29 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
     </row>
-    <row r="18" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="8">
         <v>15.34</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="9">
         <v>1</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="8">
         <v>15.34</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="9"/>
+      <c r="H18" s="27"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -1314,29 +1343,29 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
     </row>
-    <row r="19" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="8">
         <v>19.95</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="9">
         <v>1</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="8">
         <v>19.95</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="9"/>
+      <c r="H19" s="27"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -1350,29 +1379,29 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
     </row>
-    <row r="20" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="8">
         <v>7.87</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="9">
         <v>1</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="8">
         <v>7.87</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="9"/>
+      <c r="H20" s="27"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -1386,29 +1415,29 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
     </row>
-    <row r="21" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="8">
         <v>1.1100000000000001</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="9">
         <v>2</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="8">
         <v>2.2200000000000002</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="9"/>
+      <c r="H21" s="27"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -1422,29 +1451,29 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
     </row>
-    <row r="22" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="8">
         <v>5.83</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="9">
         <v>1</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="8">
         <v>5.83</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H22" s="9"/>
+      <c r="H22" s="27"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -1458,29 +1487,29 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
     </row>
-    <row r="23" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="8">
+        <v>2.57</v>
+      </c>
+      <c r="C23" s="9">
+        <v>2</v>
+      </c>
+      <c r="D23" s="8">
+        <v>5.14</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="6">
-        <v>329.99</v>
-      </c>
-      <c r="C23" s="7">
-        <v>2</v>
-      </c>
-      <c r="D23" s="6">
-        <v>659.98</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="9"/>
+      <c r="H23" s="27"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -1494,29 +1523,29 @@
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
     </row>
-    <row r="24" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="6">
-        <v>2.57</v>
-      </c>
-      <c r="C24" s="7">
+      <c r="B24" s="8">
+        <v>10.9</v>
+      </c>
+      <c r="C24" s="9">
         <v>2</v>
       </c>
-      <c r="D24" s="6">
-        <v>5.14</v>
-      </c>
-      <c r="E24" s="8" t="s">
+      <c r="D24" s="8">
+        <v>21.8</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" s="5" t="s">
+      <c r="F24" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="9"/>
+      <c r="H24" s="27"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -1530,29 +1559,15 @@
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
     </row>
-    <row r="25" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="6">
-        <v>10.9</v>
-      </c>
-      <c r="C25" s="7">
-        <v>2</v>
-      </c>
-      <c r="D25" s="6">
-        <v>21.8</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="9"/>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -1566,15 +1581,20 @@
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
     </row>
-    <row r="26" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
+    <row r="26" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="22">
+        <f>SUM(D2:D25)</f>
+        <v>640.48</v>
+      </c>
+      <c r="E26" s="24"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -1588,19 +1608,15 @@
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
     </row>
-    <row r="27" spans="1:20" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="22">
-        <v>1300.46</v>
-      </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
+    <row r="27" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="29"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -1614,15 +1630,14 @@
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
     </row>
-    <row r="28" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
@@ -1644,6 +1659,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -1745,11 +1761,11 @@
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="1"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="5"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -1767,11 +1783,11 @@
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
     </row>
-    <row r="35" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="24"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -1791,9 +1807,9 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
+      <c r="B36" s="1"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+      <c r="D36" s="1"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -3483,30 +3499,8 @@
       <c r="S112" s="2"/>
       <c r="T112" s="2"/>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A113" s="2"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
-      <c r="I113" s="2"/>
-      <c r="J113" s="2"/>
-      <c r="K113" s="2"/>
-      <c r="L113" s="2"/>
-      <c r="M113" s="2"/>
-      <c r="N113" s="2"/>
-      <c r="O113" s="2"/>
-      <c r="P113" s="2"/>
-      <c r="Q113" s="2"/>
-      <c r="R113" s="2"/>
-      <c r="S113" s="2"/>
-      <c r="T113" s="2"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:T33"/>
+  <autoFilter ref="A1:T32"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://www.google.com/url?q=http://www.newegg.com/Product/Product.aspx?Item%3DN82E16820145246&amp;sa=D&amp;usg=ALhdy2_OdGfyf_fIjj53Dn3483ZLGfEuJQ"/>
     <hyperlink ref="E3" r:id="rId2" display="https://www.google.com/url?q=http://www.monoprice.com/Product?c_id%3D103%26cp_id%3D10303%26cs_id%3D1030301%26p_id%3D5438%26seq%3D1%26format%3D2&amp;sa=D&amp;usg=ALhdy2_-KIxfIJjszuh4EY3AzMeC-o8v_A"/>
@@ -3525,15 +3519,14 @@
     <hyperlink ref="E20" r:id="rId15" display="https://www.google.com/url?q=http://www.mcmaster.com/&amp;sa=D&amp;usg=ALhdy28aCqjxm_mmJw_tIUVRB6yl2DLE-w"/>
     <hyperlink ref="E21" r:id="rId16" display="https://www.google.com/url?q=http://www.digikey.com/product-detail/en/SS-3GL13PT/SW768-ND/664729&amp;sa=D&amp;usg=ALhdy2-ViG6dhji67hd-_vIyjweTkeNaMw"/>
     <hyperlink ref="E22" r:id="rId17" display="https://www.google.com/url?q=http://www.mcmaster.com/&amp;sa=D&amp;usg=ALhdy28aCqjxm_mmJw_tIUVRB6yl2DLE-w"/>
-    <hyperlink ref="E23" r:id="rId18" display="https://www.google.com/url?q=http://www.amazon.com/ViewSonic-PJD5134-Projector-Lumens-Blu-Ray/dp/B00A9S3OOC/ref%3Dsr_1_5?ie%3DUTF8%26qid%3D1395978933%26sr%3D8-5%26keywords%3Dbusiness%2Bprojector&amp;sa=D&amp;usg=ALhdy2-gD5u_ToytYlRGBeQ3V-YU5AqKiw"/>
-    <hyperlink ref="E24" r:id="rId19" display="https://www.google.com/url?q=http://www.monoprice.com/Product?c_id%3D102%26cp_id%3D10240%26cs_id%3D1024008%26p_id%3D3871%26seq%3D1%26format%3D2&amp;sa=D&amp;usg=ALhdy2-4fDz28F4hin1iUqzskGf7bFNNNw"/>
-    <hyperlink ref="E25" r:id="rId20" display="https://www.google.com/url?q=http://www.amazon.com/TRENDnet-RS-232-Serial-Converter-TU-S9/dp/B0007T27H8/ref%3Dpd_cp_pc_1&amp;sa=D&amp;usg=ALhdy2_xW0VTX-lWucyrgJ_k26gnFgvvEQ"/>
-    <hyperlink ref="E8" r:id="rId21" location="6112k54/=rlawz9"/>
-    <hyperlink ref="E9" r:id="rId22" display="https://www.google.com/url?q=http://www.mcmaster.com/&amp;sa=D&amp;usg=ALhdy28aCqjxm_mmJw_tIUVRB6yl2DLE-w"/>
-    <hyperlink ref="E10" r:id="rId23" display="https://www.google.com/url?q=http://www.mcmaster.com/&amp;sa=D&amp;usg=ALhdy28aCqjxm_mmJw_tIUVRB6yl2DLE-w"/>
-    <hyperlink ref="E13" r:id="rId24" display="https://www.google.com/url?q=http://www.mcmaster.com/&amp;sa=D&amp;usg=ALhdy28aCqjxm_mmJw_tIUVRB6yl2DLE-w"/>
+    <hyperlink ref="E23" r:id="rId18" display="https://www.google.com/url?q=http://www.monoprice.com/Product?c_id%3D102%26cp_id%3D10240%26cs_id%3D1024008%26p_id%3D3871%26seq%3D1%26format%3D2&amp;sa=D&amp;usg=ALhdy2-4fDz28F4hin1iUqzskGf7bFNNNw"/>
+    <hyperlink ref="E24" r:id="rId19" display="https://www.google.com/url?q=http://www.amazon.com/TRENDnet-RS-232-Serial-Converter-TU-S9/dp/B0007T27H8/ref%3Dpd_cp_pc_1&amp;sa=D&amp;usg=ALhdy2_xW0VTX-lWucyrgJ_k26gnFgvvEQ"/>
+    <hyperlink ref="E8" r:id="rId20" location="6112k54/=rlawz9"/>
+    <hyperlink ref="E9" r:id="rId21" display="https://www.google.com/url?q=http://www.mcmaster.com/&amp;sa=D&amp;usg=ALhdy28aCqjxm_mmJw_tIUVRB6yl2DLE-w"/>
+    <hyperlink ref="E10" r:id="rId22" display="https://www.google.com/url?q=http://www.mcmaster.com/&amp;sa=D&amp;usg=ALhdy28aCqjxm_mmJw_tIUVRB6yl2DLE-w"/>
+    <hyperlink ref="E13" r:id="rId23" display="https://www.google.com/url?q=http://www.mcmaster.com/&amp;sa=D&amp;usg=ALhdy28aCqjxm_mmJw_tIUVRB6yl2DLE-w"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup fitToWidth="0" orientation="landscape" verticalDpi="300" r:id="rId25"/>
+  <pageSetup fitToWidth="0" orientation="landscape" verticalDpi="300" r:id="rId24"/>
 </worksheet>
 </file>